--- a/QC/Sure/Sure Automation/Documents/Order Management/Wallet Management/BasicServices.xlsx
+++ b/QC/Sure/Sure Automation/Documents/Order Management/Wallet Management/BasicServices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="212">
   <si>
     <t>TestCaseNo</t>
   </si>
@@ -338,6 +338,18 @@
   </si>
   <si>
     <t>DA-39</t>
+  </si>
+  <si>
+    <t>BILL-206</t>
+  </si>
+  <si>
+    <t>DA-40</t>
+  </si>
+  <si>
+    <t>BILL-207</t>
+  </si>
+  <si>
+    <t>DA-41</t>
   </si>
   <si>
     <t>StepNo</t>
@@ -674,6 +686,12 @@
     <t>SERVCHG4</t>
   </si>
   <si>
+    <t>SRVOP01</t>
+  </si>
+  <si>
+    <t>SRVOP02</t>
+  </si>
+  <si>
     <t>GridDataNo</t>
   </si>
   <si>
@@ -715,10 +733,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -734,8 +752,38 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -748,26 +796,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -779,11 +820,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -810,32 +851,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -843,13 +867,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -863,8 +880,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -873,13 +898,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -901,19 +919,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,13 +931,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,7 +985,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,127 +1099,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,17 +1122,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1137,32 +1155,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1184,6 +1193,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1195,149 +1213,149 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1761,26 +1779,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView topLeftCell="E47" workbookViewId="0">
+      <selection activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="22.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="48.8571428571429" style="3" customWidth="1"/>
-    <col min="5" max="5" width="27.7142857142857" customWidth="1"/>
-    <col min="6" max="7" width="15.4285714285714" customWidth="1"/>
-    <col min="8" max="8" width="16.7142857142857" customWidth="1"/>
-    <col min="9" max="9" width="19.4285714285714" customWidth="1"/>
-    <col min="10" max="10" width="22.4285714285714" customWidth="1"/>
-    <col min="11" max="11" width="22.1428571428571" customWidth="1"/>
-    <col min="12" max="12" width="18.2857142857143" customWidth="1"/>
-    <col min="13" max="13" width="13.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="11.3714285714286" customWidth="1"/>
+    <col min="2" max="2" width="13.247619047619" customWidth="1"/>
+    <col min="3" max="3" width="22.247619047619" customWidth="1"/>
+    <col min="4" max="4" width="48.8761904761905" style="3" customWidth="1"/>
+    <col min="5" max="5" width="27.752380952381" customWidth="1"/>
+    <col min="6" max="7" width="15.3714285714286" customWidth="1"/>
+    <col min="8" max="8" width="16.752380952381" customWidth="1"/>
+    <col min="9" max="9" width="19.3714285714286" customWidth="1"/>
+    <col min="10" max="10" width="22.3714285714286" customWidth="1"/>
+    <col min="11" max="11" width="22.1238095238095" customWidth="1"/>
+    <col min="12" max="12" width="18.247619047619" customWidth="1"/>
+    <col min="13" max="13" width="13.8761904761905" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -2777,6 +2795,9 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="4"/>
+    </row>
     <row r="54" spans="1:13">
       <c r="A54" s="4" t="s">
         <v>96</v>
@@ -2883,6 +2904,58 @@
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="4"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59">
+        <v>122</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59" t="s">
+        <v>105</v>
+      </c>
+      <c r="J59" t="s">
+        <v>27</v>
+      </c>
+      <c r="M59">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60">
+        <v>122</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" t="s">
+        <v>107</v>
+      </c>
+      <c r="J60" t="s">
+        <v>27</v>
+      </c>
+      <c r="M60">
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -2900,37 +2973,37 @@
   <sheetPr/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="9.71428571428571" customWidth="1"/>
-    <col min="3" max="3" width="19.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="31.2857142857143" style="3" customWidth="1"/>
-    <col min="5" max="5" width="7.57142857142857" customWidth="1"/>
-    <col min="6" max="6" width="11.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="14.8761904761905" customWidth="1"/>
+    <col min="2" max="2" width="9.75238095238095" customWidth="1"/>
+    <col min="3" max="3" width="19.6285714285714" customWidth="1"/>
+    <col min="4" max="4" width="31.247619047619" style="3" customWidth="1"/>
+    <col min="5" max="5" width="7.62857142857143" customWidth="1"/>
+    <col min="6" max="6" width="11.3714285714286" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="15.7142857142857" customWidth="1"/>
+    <col min="8" max="8" width="15.752380952381" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -2939,33 +3012,33 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" ht="30" spans="3:4">
       <c r="C3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" ht="60" spans="3:4">
       <c r="C5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" ht="75" spans="3:4">
@@ -2973,87 +3046,87 @@
         <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" ht="75" spans="3:4">
       <c r="C7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" ht="75" spans="3:4">
       <c r="C8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" ht="75" spans="3:4">
       <c r="C9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" ht="135" spans="3:4">
       <c r="C11" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="3:4">
       <c r="C12" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" ht="105" spans="3:4">
       <c r="C14" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" ht="105" spans="3:4">
       <c r="C15" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" ht="75" spans="3:4">
       <c r="C16" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3067,90 +3140,90 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="40.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="29.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="31.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="32.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="27.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="29.4285714285714" customWidth="1"/>
-    <col min="8" max="8" width="27.5714285714286" customWidth="1"/>
-    <col min="9" max="9" width="25.7142857142857" customWidth="1"/>
-    <col min="10" max="10" width="28.5714285714286" customWidth="1"/>
-    <col min="11" max="11" width="17.8571428571429" customWidth="1"/>
-    <col min="12" max="12" width="13.7142857142857" customWidth="1"/>
-    <col min="13" max="13" width="19.1428571428571" customWidth="1"/>
-    <col min="17" max="17" width="23.5714285714286" customWidth="1"/>
-    <col min="38" max="38" width="11.7142857142857" customWidth="1"/>
-    <col min="49" max="49" width="19.4285714285714" customWidth="1"/>
-    <col min="50" max="50" width="26.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="18.8761904761905" customWidth="1"/>
+    <col min="2" max="2" width="40.247619047619" customWidth="1"/>
+    <col min="3" max="3" width="29.752380952381" customWidth="1"/>
+    <col min="4" max="4" width="31.247619047619" customWidth="1"/>
+    <col min="5" max="5" width="32.1238095238095" customWidth="1"/>
+    <col min="6" max="6" width="27.752380952381" customWidth="1"/>
+    <col min="7" max="7" width="29.3714285714286" customWidth="1"/>
+    <col min="8" max="8" width="27.6285714285714" customWidth="1"/>
+    <col min="9" max="9" width="25.752380952381" customWidth="1"/>
+    <col min="10" max="10" width="28.6285714285714" customWidth="1"/>
+    <col min="11" max="11" width="17.8761904761905" customWidth="1"/>
+    <col min="12" max="12" width="13.752380952381" customWidth="1"/>
+    <col min="13" max="13" width="19.1238095238095" customWidth="1"/>
+    <col min="17" max="17" width="23.6285714285714" customWidth="1"/>
+    <col min="38" max="38" width="11.752380952381" customWidth="1"/>
+    <col min="49" max="49" width="19.3714285714286" customWidth="1"/>
+    <col min="50" max="50" width="26.6285714285714" customWidth="1"/>
     <col min="51" max="51" width="21" customWidth="1"/>
-    <col min="52" max="52" width="36.4285714285714" customWidth="1"/>
-    <col min="53" max="53" width="18.5714285714286" customWidth="1"/>
+    <col min="52" max="52" width="36.3714285714286" customWidth="1"/>
+    <col min="53" max="53" width="18.6285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="J2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3158,68 +3231,68 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E6" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F6" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:10">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:10">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E8" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F8" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J8" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3227,22 +3300,22 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" t="s">
+        <v>157</v>
+      </c>
+      <c r="I9" t="s">
         <v>158</v>
       </c>
-      <c r="D9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E9" t="s">
-        <v>153</v>
-      </c>
-      <c r="F9" t="s">
-        <v>153</v>
-      </c>
-      <c r="I9" t="s">
-        <v>154</v>
-      </c>
       <c r="J9" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3250,22 +3323,22 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" t="s">
+        <v>157</v>
+      </c>
+      <c r="I10" t="s">
+        <v>158</v>
+      </c>
+      <c r="J10" t="s">
         <v>159</v>
-      </c>
-      <c r="D10" t="s">
-        <v>159</v>
-      </c>
-      <c r="E10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F10" t="s">
-        <v>153</v>
-      </c>
-      <c r="I10" t="s">
-        <v>154</v>
-      </c>
-      <c r="J10" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3273,22 +3346,22 @@
         <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E11" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F11" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I11" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J11" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3296,22 +3369,22 @@
         <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D12" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E12" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F12" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I12" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J12" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3319,22 +3392,22 @@
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I13" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J13" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3342,22 +3415,22 @@
         <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D14" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E14" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3365,22 +3438,22 @@
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D15" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E15" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F15" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I15" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3388,22 +3461,22 @@
         <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D16" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E16" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F16" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I16" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J16" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3411,22 +3484,22 @@
         <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D17" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E17" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F17" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I17" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J17" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3434,22 +3507,22 @@
         <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D18" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E18" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F18" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I18" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J18" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3457,22 +3530,22 @@
         <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D19" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E19" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F19" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I19" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J19" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3480,22 +3553,22 @@
         <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D21" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E21" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F21" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I21" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J21" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3503,22 +3576,22 @@
         <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D22" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E22" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F22" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I22" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J22" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3526,22 +3599,22 @@
         <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D23" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E23" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F23" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I23" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J23" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3549,22 +3622,22 @@
         <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D24" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E24" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F24" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I24" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J24" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3572,91 +3645,91 @@
         <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D25" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E25" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F25" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I25" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J25" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:10">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D28" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E28" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F28" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I28" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J28" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="1:10">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D31" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E31" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F31" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I31" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J31" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:10">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D32" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E32" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F32" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I32" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J32" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3664,22 +3737,22 @@
         <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D33" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E33" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F33" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I33" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J33" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3687,22 +3760,22 @@
         <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D34" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E34" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F34" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I34" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J34" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3710,22 +3783,22 @@
         <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D35" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E35" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F35" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I35" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J35" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3733,91 +3806,91 @@
         <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D36" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E36" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F36" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I36" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J36" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" spans="1:10">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D38" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E38" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F38" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I38" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J38" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" customFormat="1" spans="1:10">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D39" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E39" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F39" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I39" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J39" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:10">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D42" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E42" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F42" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I42" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J42" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3825,22 +3898,22 @@
         <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D43" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E43" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F43" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I43" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J43" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -3848,22 +3921,22 @@
         <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D44" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E44" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F44" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I44" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J44" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -3871,22 +3944,22 @@
         <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D45" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E45" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F45" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I45" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J45" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -3894,22 +3967,22 @@
         <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D46" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E46" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F46" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I46" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J46" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -3917,22 +3990,22 @@
         <v>93</v>
       </c>
       <c r="C47" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D47" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E47" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F47" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I47" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J47" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -3940,114 +4013,160 @@
         <v>95</v>
       </c>
       <c r="C48" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D48" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E48" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F48" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I48" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J48" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" spans="1:10">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>97</v>
       </c>
       <c r="C51" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D51" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E51" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F51" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I51" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J51" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" spans="1:10">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>99</v>
       </c>
       <c r="C52" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D52" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E52" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F52" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I52" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J52" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" spans="1:10">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>101</v>
       </c>
       <c r="C53" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D53" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E53" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F53" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I53" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J53" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" spans="1:10">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D54" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E54" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F54" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I54" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J54" t="s">
-        <v>155</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" t="s">
+        <v>198</v>
+      </c>
+      <c r="D59" t="s">
+        <v>198</v>
+      </c>
+      <c r="E59" t="s">
+        <v>157</v>
+      </c>
+      <c r="F59" t="s">
+        <v>157</v>
+      </c>
+      <c r="I59" t="s">
+        <v>158</v>
+      </c>
+      <c r="J59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" t="s">
+        <v>199</v>
+      </c>
+      <c r="D60" t="s">
+        <v>199</v>
+      </c>
+      <c r="E60" t="s">
+        <v>157</v>
+      </c>
+      <c r="F60" t="s">
+        <v>157</v>
+      </c>
+      <c r="I60" t="s">
+        <v>158</v>
+      </c>
+      <c r="J60" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4069,17 +4188,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="13.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="7.85714285714286" customWidth="1"/>
+    <col min="1" max="1" width="12.247619047619" customWidth="1"/>
+    <col min="2" max="2" width="13.752380952381" customWidth="1"/>
+    <col min="5" max="5" width="7.87619047619048" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -4120,31 +4239,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.28571428571429" customWidth="1"/>
+    <col min="1" max="1" width="9.24761904761905" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="23.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="19.2857142857143" customWidth="1"/>
-    <col min="5" max="6" width="13.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="23.752380952381" customWidth="1"/>
+    <col min="4" max="4" width="19.247619047619" customWidth="1"/>
+    <col min="5" max="6" width="13.3714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4166,11 +4285,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="20.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="12.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="21.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="12.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="12.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="20.1238095238095" customWidth="1"/>
+    <col min="2" max="2" width="12.752380952381" customWidth="1"/>
+    <col min="3" max="3" width="21.6285714285714" customWidth="1"/>
+    <col min="4" max="4" width="12.8761904761905" customWidth="1"/>
+    <col min="6" max="6" width="12.6285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4181,16 +4300,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -4212,25 +4331,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="10.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="11.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="11.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="14.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="10.6285714285714" customWidth="1"/>
+    <col min="3" max="3" width="11.3714285714286" customWidth="1"/>
+    <col min="4" max="4" width="11.1238095238095" customWidth="1"/>
+    <col min="5" max="5" width="14.8761904761905" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
